--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/NORTH_DAKOTA_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/NORTH_DAKOTA_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C11">
@@ -527,7 +527,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C12">
@@ -540,7 +540,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C13">
@@ -579,7 +579,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -680,12 +680,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C23">
@@ -711,7 +711,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -742,7 +742,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C27">
@@ -755,7 +755,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C28">
@@ -791,7 +791,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C30">
@@ -804,7 +804,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C31">
@@ -848,7 +848,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C34">
@@ -918,7 +918,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C39">
@@ -957,7 +957,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C42">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C53">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C55">
@@ -1164,7 +1164,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C56">
@@ -1177,7 +1177,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerero</t>
+          <t>Putla Villa De Guerero</t>
         </is>
       </c>
       <c r="C57">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C69">
@@ -1566,41 +1566,6 @@
       </c>
       <c r="D84">
         <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/NORTH_DAKOTA_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/NORTH_DAKOTA_2020.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Dr. Belisario Domínguez</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Guerero</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>San Francisco De Borja</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>San Francisco De Conchos</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Temósachic</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Gómez Palacio</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Tepehuanes</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Topia</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -696,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -727,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Santa Catarina</t>
@@ -740,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -753,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -802,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -815,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -828,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Total</t>
@@ -859,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Xochicoatlán</t>
@@ -872,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Total</t>
@@ -903,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -916,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Jilotlán De Los Dolores</t>
@@ -929,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -942,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -955,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -968,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Total</t>
@@ -999,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -1012,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -1025,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1056,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -1069,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1100,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1131,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1162,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Miahuatlán De Porfirio Díaz</t>
@@ -1175,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Putla Villa De Guerero</t>
@@ -1188,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -1201,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>San Miguel Amatlán</t>
@@ -1214,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1245,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Jolalpan</t>
@@ -1258,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Pantepec</t>
@@ -1271,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1284,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1315,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -1328,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1359,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1390,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -1403,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1434,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -1447,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -1460,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Pánuco</t>
@@ -1473,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -1486,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1517,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Miguel Auza</t>
@@ -1530,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -1543,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Total</t>
